--- a/ERP_Accounting/TestOutput/hybrid.xlsx
+++ b/ERP_Accounting/TestOutput/hybrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="3" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="116">
   <si>
     <t>TCID</t>
   </si>
@@ -356,6 +356,42 @@
     <t>(//*[text()='OK'])[6]</t>
   </si>
   <si>
+    <t>Wait For Stock Item</t>
+  </si>
+  <si>
+    <t>//*[@id='mi_a_stock_items']/a</t>
+  </si>
+  <si>
+    <t>Mouse Click</t>
+  </si>
+  <si>
+    <t>stockCategories</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Wait For Alert Button</t>
+  </si>
+  <si>
+    <t>Click On Alert Button</t>
+  </si>
+  <si>
+    <t>stockValidation</t>
+  </si>
+  <si>
+    <t>//*[@id="x_Category_Name"]</t>
+  </si>
+  <si>
+    <t>//*[@id="btnAction"]</t>
+  </si>
+  <si>
+    <t>iphonex1</t>
+  </si>
+  <si>
     <t>Not Executed</t>
   </si>
   <si>
@@ -367,7 +403,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="85">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,487 +435,271 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -946,7 +766,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1002,42 +822,6 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1336,7 +1120,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s" s="9">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1383,10 +1167,10 @@
         <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="89">
-        <v>103</v>
+        <v>44</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1397,10 +1181,10 @@
         <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s" s="90">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="54">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1690,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1740,9 +1524,7 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s" s="10">
-        <v>103</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1760,9 +1542,7 @@
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s" s="12">
-        <v>103</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -1780,9 +1560,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="14">
-        <v>103</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -1800,9 +1578,7 @@
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s" s="16">
-        <v>103</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -1820,9 +1596,7 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="18">
-        <v>103</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
@@ -1840,9 +1614,7 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s" s="20">
-        <v>103</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
@@ -1860,9 +1632,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="22">
-        <v>103</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
@@ -1880,9 +1650,7 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s" s="24">
-        <v>103</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -1900,9 +1668,7 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="26">
-        <v>103</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
@@ -1920,9 +1686,7 @@
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s" s="28">
-        <v>103</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
@@ -1940,9 +1704,7 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="30">
-        <v>103</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
@@ -1960,9 +1722,7 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s" s="32">
-        <v>103</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -1980,9 +1740,7 @@
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="34">
-        <v>103</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
@@ -2000,9 +1758,7 @@
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s" s="36">
-        <v>103</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
@@ -2020,9 +1776,7 @@
       <c r="E16" s="2">
         <v>10</v>
       </c>
-      <c r="F16" t="s" s="38">
-        <v>103</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
@@ -2040,9 +1794,7 @@
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s" s="40">
-        <v>103</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
@@ -2060,9 +1812,7 @@
       <c r="E18" s="2">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="42">
-        <v>103</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
@@ -2080,9 +1830,7 @@
       <c r="E19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F19" t="s" s="44">
-        <v>103</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
@@ -2100,9 +1848,7 @@
       <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" t="s" s="46">
-        <v>103</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
@@ -2120,9 +1866,7 @@
       <c r="E21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s" s="48">
-        <v>103</v>
-      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
@@ -2140,9 +1884,7 @@
       <c r="E22" s="2">
         <v>10</v>
       </c>
-      <c r="F22" t="s" s="50">
-        <v>103</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
@@ -2160,9 +1902,7 @@
       <c r="E23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F23" t="s" s="52">
-        <v>103</v>
-      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
@@ -2180,9 +1920,7 @@
       <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="54">
-        <v>103</v>
-      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
@@ -2200,9 +1938,7 @@
       <c r="E25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F25" t="s" s="56">
-        <v>103</v>
-      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
@@ -2220,9 +1956,7 @@
       <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="58">
-        <v>103</v>
-      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
@@ -2240,9 +1974,7 @@
       <c r="E27" s="2">
         <v>9998885552</v>
       </c>
-      <c r="F27" t="s" s="60">
-        <v>103</v>
-      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
@@ -2260,9 +1992,7 @@
       <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="62">
-        <v>103</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
@@ -2280,9 +2010,7 @@
       <c r="E29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F29" t="s" s="64">
-        <v>103</v>
-      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
@@ -2300,9 +2028,7 @@
       <c r="E30" s="2">
         <v>10</v>
       </c>
-      <c r="F30" t="s" s="66">
-        <v>103</v>
-      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7" t="s">
@@ -2320,9 +2046,7 @@
       <c r="E31" s="2">
         <v>9874563214</v>
       </c>
-      <c r="F31" t="s" s="68">
-        <v>103</v>
-      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
@@ -2340,9 +2064,7 @@
       <c r="E32" s="2">
         <v>10</v>
       </c>
-      <c r="F32" t="s" s="70">
-        <v>103</v>
-      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
@@ -2360,9 +2082,7 @@
       <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F33" t="s" s="72">
-        <v>103</v>
-      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
@@ -2380,9 +2100,7 @@
       <c r="E34" s="2">
         <v>10</v>
       </c>
-      <c r="F34" t="s" s="74">
-        <v>103</v>
-      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
@@ -2400,9 +2118,7 @@
       <c r="E35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F35" t="s" s="76">
-        <v>103</v>
-      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
@@ -2420,9 +2136,7 @@
       <c r="E36" s="2">
         <v>10</v>
       </c>
-      <c r="F36" t="s" s="78">
-        <v>103</v>
-      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="7" t="s">
@@ -2440,9 +2154,7 @@
       <c r="E37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F37" t="s" s="80">
-        <v>103</v>
-      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="7" t="s">
@@ -2460,9 +2172,7 @@
       <c r="E38" s="2">
         <v>10</v>
       </c>
-      <c r="F38" t="s" s="82">
-        <v>103</v>
-      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
@@ -2480,9 +2190,7 @@
       <c r="E39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F39" t="s" s="84">
-        <v>103</v>
-      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="7" t="s">
@@ -2500,9 +2208,7 @@
       <c r="E40" s="2">
         <v>6</v>
       </c>
-      <c r="F40" t="s" s="86">
-        <v>103</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
@@ -2520,9 +2226,7 @@
       <c r="E41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F41" t="s" s="88">
-        <v>103</v>
-      </c>
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2534,12 +2238,483 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="25.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="73.28515625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s" s="25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s" s="29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="31">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s" s="33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="39">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s" s="41">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="43">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s" s="45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="47">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s" s="49">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s" s="51">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s" s="53">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>